--- a/web-platform_22_01_dev/data/modules/Modules.xlsx
+++ b/web-platform_22_01_dev/data/modules/Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\web-platform_22_01_dev\data\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD9E6B5-E1C6-4BF2-8BBC-50B97E68D3E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E50E75-9ED9-4B00-B4E0-69F29BCC137E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="62">
   <si>
     <t>ТИП:</t>
   </si>
@@ -205,13 +205,19 @@
   </si>
   <si>
     <t>salary</t>
+  </si>
+  <si>
+    <t>Обучение</t>
+  </si>
+  <si>
+    <t>section_study</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,13 +537,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -548,7 +554,7 @@
     <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -594,7 +600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -617,7 +623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -640,7 +646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -663,7 +669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -686,81 +692,81 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
@@ -769,44 +775,44 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
@@ -815,21 +821,21 @@
         <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -838,67 +844,67 @@
         <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>3</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -907,21 +913,21 @@
         <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -930,44 +936,44 @@
         <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>3</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>11</v>
@@ -976,44 +982,44 @@
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="25.5">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -1022,21 +1028,21 @@
         <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="25.5">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -1045,21 +1051,21 @@
         <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="25.5">
-      <c r="A23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
@@ -1068,21 +1074,21 @@
         <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -1091,21 +1097,21 @@
         <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
@@ -1114,39 +1120,39 @@
         <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>6</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="25.5">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="25.5">
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1166,6 +1172,29 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>58</v>
       </c>
     </row>

--- a/web-platform_22_01_dev/data/modules/Modules.xlsx
+++ b/web-platform_22_01_dev/data/modules/Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\web-platform_22_01_dev\data\modules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E50E75-9ED9-4B00-B4E0-69F29BCC137E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D52FC8-5E50-4786-921F-4AC5E557B9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="70">
   <si>
     <t>ТИП:</t>
   </si>
@@ -141,9 +141,6 @@
     <t>career</t>
   </si>
   <si>
-    <t>Добавить идею</t>
-  </si>
-  <si>
     <t>idea_create</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>idea_list</t>
   </si>
   <si>
-    <t>Рейтинги банка идей</t>
-  </si>
-  <si>
     <t>idea_rating</t>
   </si>
   <si>
@@ -211,6 +205,36 @@
   </si>
   <si>
     <t>section_study</t>
+  </si>
+  <si>
+    <t>Подать идею</t>
+  </si>
+  <si>
+    <t>Рейтинги среди идей</t>
+  </si>
+  <si>
+    <t>Открытые вакансии на нашем предприятии</t>
+  </si>
+  <si>
+    <t>Подать идею в банк идей</t>
+  </si>
+  <si>
+    <t>Список всех идей в банке идей</t>
+  </si>
+  <si>
+    <t>Рейтинги пользователей подавших свои идеи</t>
+  </si>
+  <si>
+    <t>Видеоролики</t>
+  </si>
+  <si>
+    <t>Рационализа торство</t>
+  </si>
+  <si>
+    <t>video_study</t>
+  </si>
+  <si>
+    <t>Видео инструкции</t>
   </si>
 </sst>
 </file>
@@ -537,21 +561,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="37.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -697,7 +721,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -706,16 +730,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -835,7 +859,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
@@ -876,58 +900,58 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -936,21 +960,21 @@
         <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -959,44 +983,44 @@
         <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -1005,44 +1029,44 @@
         <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
@@ -1051,21 +1075,21 @@
         <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
@@ -1074,21 +1098,21 @@
         <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -1097,21 +1121,21 @@
         <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
@@ -1120,21 +1144,21 @@
         <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
@@ -1143,44 +1167,44 @@
         <v>28</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27">
         <v>6</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>17</v>
@@ -1189,16 +1213,63 @@
         <v>22</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>58</v>
+      <c r="E30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>